--- a/downloads/12.3.Columna Dinámica Ejercicio Práctico.xlsx
+++ b/downloads/12.3.Columna Dinámica Ejercicio Práctico.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIDIER1\Dropbox\BI (BUSINESS INTELLIGENCE ) LIBRO\POWER QUERY\Capitulo 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Personales\Curso-de-Herramientas-analiticas-para-auditoria-I\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E841D61-D43C-4ED7-B40A-560D94B8CEED}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC8F0E-33A3-48C8-8F31-3D79186491A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{43599FEF-1D7A-42E6-9171-A50C49C06712}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{43599FEF-1D7A-42E6-9171-A50C49C06712}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Nuevos Gerentes País</t>
   </si>
@@ -82,16 +90,33 @@
   </si>
   <si>
     <t>TOTAL ABSOLUTO</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Durant</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>Marcel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +151,13 @@
       <color theme="1"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,16 +224,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -217,8 +249,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,142 +570,142 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>160</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>19</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>43105</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>175</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>18</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>43108</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>158</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>17</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>43112</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f>8*20</f>
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>43105</v>
       </c>
     </row>
@@ -681,7 +717,7 @@
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="20">
         <f>(B5*B6)-(B7-DATE(2018,1,1)*B6)</f>
         <v>778854</v>
       </c>
@@ -691,50 +727,50 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>14</v>
+      <c r="B13" s="18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>43108</v>
       </c>
     </row>
@@ -746,60 +782,60 @@
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="21">
         <f>(B14*B15)-(B16-DATE(2018,1,1)*B15)</f>
         <v>735860</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>15</v>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>16</v>
+      <c r="B21" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="18">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="19">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="19">
-        <v>17</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>43112</v>
       </c>
     </row>
@@ -811,16 +847,16 @@
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="21">
         <f>(B23*B24)-(B25-DATE(2018,1,1)*B24)</f>
         <v>692291</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="22">
         <f>B27+B18+B9</f>
         <v>2207005</v>
       </c>
